--- a/medicine/Soins infirmiers et profession infirmière/Plan_de_soins_infirmier/Plan_de_soins_infirmier.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Plan_de_soins_infirmier/Plan_de_soins_infirmier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan de soins infirmier est un outil de la démarche intellectuelle infirmière permettant de structurer la dispensation des soins infirmiers aux personnes. Il permet d'exposer, d'organiser et d'argumenter les soins infirmiers qui sont prodigués par les infirmiers. Il regroupe l'ensemble des actions que l'infirmier va appliquer face aux problèmes de santé présentés par la personne recueillis au moyen du recueil de données infirmier et de l'anamnèse jusqu'à leurs réévaluations.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du plan de soins infirmier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est basé sur un ou plusieurs problèmes de santé présents ou potentiels.
 Il concerne une personne ou un groupe de personnes.
@@ -545,7 +559,9 @@
           <t>Éléments du plan de soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan de soins infirmier se constitue principalement d'un diagnostic infirmier. Il met le diagnostic en relation avec les facteurs favorisants du problème de santé identifié et les données objectives et subjectives présentées par la personne.
 Face au diagnostic établi, il regroupe les actions de soins à effectuer et permet de les classer en fonction de leur importance. Il inclut les objectifs de soin, les résultats attendus, ainsi que leur évaluation.
@@ -578,7 +594,9 @@
           <t>Intégration au processus de soins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plans de soins infirmiers sont établis en utilisant le processus de soins infirmier, encore nommé démarche de soins infirmier.
 En premier lieu, l'infirmier collecte les données subjectives et objectives au travers du recueil de données infirmier ou de l'anamnèse. Il les organise dans un modèle systémique selon une grille (comme celle des quatorze besoins). Cette étape permet d'identifier les zones dans lesquelles la personne soignée présente un besoin de soin infirmier.
